--- a/各类图表/甘特图.xlsx
+++ b/各类图表/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8655" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="13" r:id="rId1"/>
@@ -1344,13 +1344,13 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2202,7 +2202,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$2" horiz="1" max="100" min="1" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$2" horiz="1" max="100" min="1" val="8"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,10 +3627,10 @@
   </sheetPr>
   <dimension ref="A1:CH78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C33"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75"/>
@@ -3670,7 +3670,7 @@
       <c r="E2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U2" s="63" t="s">
         <v>15</v>
@@ -3690,7 +3690,7 @@
       <c r="H3" s="20"/>
       <c r="J3" s="48" t="str">
         <f>"第 "&amp;(J4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 4 周</v>
+        <v>第 8 周</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
@@ -3700,7 +3700,7 @@
       <c r="P3" s="50"/>
       <c r="Q3" s="48" t="str">
         <f>"第 "&amp;(Q4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 5 周</v>
+        <v>第 9 周</v>
       </c>
       <c r="R3" s="49"/>
       <c r="S3" s="49"/>
@@ -3710,7 +3710,7 @@
       <c r="W3" s="50"/>
       <c r="X3" s="48" t="str">
         <f t="shared" ref="X3" si="0">"第 "&amp;(X4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 6 周</v>
+        <v>第 10 周</v>
       </c>
       <c r="Y3" s="49"/>
       <c r="Z3" s="49"/>
@@ -3720,7 +3720,7 @@
       <c r="AD3" s="50"/>
       <c r="AE3" s="48" t="str">
         <f t="shared" ref="AE3" si="1">"第 "&amp;(AE4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 7 周</v>
+        <v>第 11 周</v>
       </c>
       <c r="AF3" s="49"/>
       <c r="AG3" s="49"/>
@@ -3730,7 +3730,7 @@
       <c r="AK3" s="50"/>
       <c r="AL3" s="48" t="str">
         <f t="shared" ref="AL3" si="2">"第 "&amp;(AL4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 8 周</v>
+        <v>第 12 周</v>
       </c>
       <c r="AM3" s="49"/>
       <c r="AN3" s="49"/>
@@ -3740,7 +3740,7 @@
       <c r="AR3" s="50"/>
       <c r="AS3" s="48" t="str">
         <f t="shared" ref="AS3" si="3">"第 "&amp;(AS4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 9 周</v>
+        <v>第 13 周</v>
       </c>
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
@@ -3750,7 +3750,7 @@
       <c r="AY3" s="50"/>
       <c r="AZ3" s="48" t="str">
         <f t="shared" ref="AZ3" si="4">"第 "&amp;(AZ4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 10 周</v>
+        <v>第 14 周</v>
       </c>
       <c r="BA3" s="49"/>
       <c r="BB3" s="49"/>
@@ -3760,7 +3760,7 @@
       <c r="BF3" s="50"/>
       <c r="BG3" s="48" t="str">
         <f t="shared" ref="BG3" si="5">"第 "&amp;(BG4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 11 周</v>
+        <v>第 15 周</v>
       </c>
       <c r="BH3" s="49"/>
       <c r="BI3" s="49"/>
@@ -3770,7 +3770,7 @@
       <c r="BM3" s="50"/>
       <c r="BN3" s="48" t="str">
         <f t="shared" ref="BN3" si="6">"第 "&amp;(BN4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 12 周</v>
+        <v>第 16 周</v>
       </c>
       <c r="BO3" s="49"/>
       <c r="BP3" s="49"/>
@@ -3780,7 +3780,7 @@
       <c r="BT3" s="50"/>
       <c r="BU3" s="48" t="str">
         <f t="shared" ref="BU3" si="7">"第 "&amp;(BU4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 13 周</v>
+        <v>第 17 周</v>
       </c>
       <c r="BV3" s="49"/>
       <c r="BW3" s="49"/>
@@ -3790,7 +3790,7 @@
       <c r="CA3" s="50"/>
       <c r="CB3" s="48" t="str">
         <f t="shared" ref="CB3" si="8">"第 "&amp;(CB4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 14 周</v>
+        <v>第 18 周</v>
       </c>
       <c r="CC3" s="49"/>
       <c r="CD3" s="49"/>
@@ -3811,311 +3811,311 @@
       <c r="I4" s="22"/>
       <c r="J4" s="51">
         <f>C3-WEEKDAY(C3,1)+2+7*(H2-1)</f>
-        <v>45733</v>
+        <v>45761</v>
       </c>
       <c r="K4" s="52">
         <f t="shared" ref="K4:AP4" si="9">J4+1</f>
-        <v>45734</v>
+        <v>45762</v>
       </c>
       <c r="L4" s="52">
         <f t="shared" si="9"/>
-        <v>45735</v>
+        <v>45763</v>
       </c>
       <c r="M4" s="52">
         <f t="shared" si="9"/>
-        <v>45736</v>
+        <v>45764</v>
       </c>
       <c r="N4" s="52">
         <f t="shared" si="9"/>
-        <v>45737</v>
+        <v>45765</v>
       </c>
       <c r="O4" s="52">
         <f t="shared" si="9"/>
-        <v>45738</v>
+        <v>45766</v>
       </c>
       <c r="P4" s="53">
         <f t="shared" si="9"/>
-        <v>45739</v>
+        <v>45767</v>
       </c>
       <c r="Q4" s="51">
         <f t="shared" si="9"/>
-        <v>45740</v>
+        <v>45768</v>
       </c>
       <c r="R4" s="52">
         <f t="shared" si="9"/>
-        <v>45741</v>
+        <v>45769</v>
       </c>
       <c r="S4" s="52">
         <f t="shared" si="9"/>
-        <v>45742</v>
+        <v>45770</v>
       </c>
       <c r="T4" s="52">
         <f t="shared" si="9"/>
-        <v>45743</v>
+        <v>45771</v>
       </c>
       <c r="U4" s="52">
         <f t="shared" si="9"/>
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="V4" s="52">
         <f t="shared" si="9"/>
-        <v>45745</v>
+        <v>45773</v>
       </c>
       <c r="W4" s="53">
         <f t="shared" si="9"/>
-        <v>45746</v>
+        <v>45774</v>
       </c>
       <c r="X4" s="51">
         <f t="shared" si="9"/>
-        <v>45747</v>
+        <v>45775</v>
       </c>
       <c r="Y4" s="52">
         <f t="shared" si="9"/>
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="Z4" s="52">
         <f t="shared" si="9"/>
-        <v>45749</v>
+        <v>45777</v>
       </c>
       <c r="AA4" s="52">
         <f t="shared" si="9"/>
-        <v>45750</v>
+        <v>45778</v>
       </c>
       <c r="AB4" s="52">
         <f t="shared" si="9"/>
-        <v>45751</v>
+        <v>45779</v>
       </c>
       <c r="AC4" s="52">
         <f t="shared" si="9"/>
-        <v>45752</v>
+        <v>45780</v>
       </c>
       <c r="AD4" s="53">
         <f t="shared" si="9"/>
-        <v>45753</v>
+        <v>45781</v>
       </c>
       <c r="AE4" s="51">
         <f t="shared" si="9"/>
-        <v>45754</v>
+        <v>45782</v>
       </c>
       <c r="AF4" s="52">
         <f t="shared" si="9"/>
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="AG4" s="52">
         <f t="shared" si="9"/>
-        <v>45756</v>
+        <v>45784</v>
       </c>
       <c r="AH4" s="52">
         <f t="shared" si="9"/>
-        <v>45757</v>
+        <v>45785</v>
       </c>
       <c r="AI4" s="52">
         <f t="shared" si="9"/>
-        <v>45758</v>
+        <v>45786</v>
       </c>
       <c r="AJ4" s="52">
         <f t="shared" si="9"/>
-        <v>45759</v>
+        <v>45787</v>
       </c>
       <c r="AK4" s="53">
         <f t="shared" si="9"/>
-        <v>45760</v>
+        <v>45788</v>
       </c>
       <c r="AL4" s="51">
         <f t="shared" si="9"/>
-        <v>45761</v>
+        <v>45789</v>
       </c>
       <c r="AM4" s="52">
         <f t="shared" si="9"/>
-        <v>45762</v>
+        <v>45790</v>
       </c>
       <c r="AN4" s="52">
         <f t="shared" si="9"/>
-        <v>45763</v>
+        <v>45791</v>
       </c>
       <c r="AO4" s="52">
         <f t="shared" si="9"/>
-        <v>45764</v>
+        <v>45792</v>
       </c>
       <c r="AP4" s="52">
         <f t="shared" si="9"/>
-        <v>45765</v>
+        <v>45793</v>
       </c>
       <c r="AQ4" s="52">
         <f t="shared" ref="AQ4:BM4" si="10">AP4+1</f>
-        <v>45766</v>
+        <v>45794</v>
       </c>
       <c r="AR4" s="53">
         <f t="shared" si="10"/>
-        <v>45767</v>
+        <v>45795</v>
       </c>
       <c r="AS4" s="51">
         <f t="shared" si="10"/>
-        <v>45768</v>
+        <v>45796</v>
       </c>
       <c r="AT4" s="52">
         <f t="shared" si="10"/>
-        <v>45769</v>
+        <v>45797</v>
       </c>
       <c r="AU4" s="52">
         <f t="shared" si="10"/>
-        <v>45770</v>
+        <v>45798</v>
       </c>
       <c r="AV4" s="52">
         <f t="shared" si="10"/>
-        <v>45771</v>
+        <v>45799</v>
       </c>
       <c r="AW4" s="52">
         <f t="shared" si="10"/>
-        <v>45772</v>
+        <v>45800</v>
       </c>
       <c r="AX4" s="52">
         <f t="shared" si="10"/>
-        <v>45773</v>
+        <v>45801</v>
       </c>
       <c r="AY4" s="53">
         <f t="shared" si="10"/>
-        <v>45774</v>
+        <v>45802</v>
       </c>
       <c r="AZ4" s="51">
         <f t="shared" si="10"/>
-        <v>45775</v>
+        <v>45803</v>
       </c>
       <c r="BA4" s="52">
         <f t="shared" si="10"/>
-        <v>45776</v>
+        <v>45804</v>
       </c>
       <c r="BB4" s="52">
         <f t="shared" si="10"/>
-        <v>45777</v>
+        <v>45805</v>
       </c>
       <c r="BC4" s="52">
         <f t="shared" si="10"/>
-        <v>45778</v>
+        <v>45806</v>
       </c>
       <c r="BD4" s="52">
         <f t="shared" si="10"/>
-        <v>45779</v>
+        <v>45807</v>
       </c>
       <c r="BE4" s="52">
         <f t="shared" si="10"/>
-        <v>45780</v>
+        <v>45808</v>
       </c>
       <c r="BF4" s="53">
         <f t="shared" si="10"/>
-        <v>45781</v>
+        <v>45809</v>
       </c>
       <c r="BG4" s="51">
         <f t="shared" si="10"/>
-        <v>45782</v>
+        <v>45810</v>
       </c>
       <c r="BH4" s="52">
         <f t="shared" si="10"/>
-        <v>45783</v>
+        <v>45811</v>
       </c>
       <c r="BI4" s="52">
         <f t="shared" si="10"/>
-        <v>45784</v>
+        <v>45812</v>
       </c>
       <c r="BJ4" s="52">
         <f t="shared" si="10"/>
-        <v>45785</v>
+        <v>45813</v>
       </c>
       <c r="BK4" s="52">
         <f t="shared" si="10"/>
-        <v>45786</v>
+        <v>45814</v>
       </c>
       <c r="BL4" s="52">
         <f t="shared" si="10"/>
-        <v>45787</v>
+        <v>45815</v>
       </c>
       <c r="BM4" s="53">
         <f t="shared" si="10"/>
-        <v>45788</v>
+        <v>45816</v>
       </c>
       <c r="BN4" s="51">
         <f t="shared" ref="BN4" si="11">BM4+1</f>
-        <v>45789</v>
+        <v>45817</v>
       </c>
       <c r="BO4" s="52">
         <f t="shared" ref="BO4" si="12">BN4+1</f>
-        <v>45790</v>
+        <v>45818</v>
       </c>
       <c r="BP4" s="52">
         <f t="shared" ref="BP4" si="13">BO4+1</f>
-        <v>45791</v>
+        <v>45819</v>
       </c>
       <c r="BQ4" s="52">
         <f t="shared" ref="BQ4" si="14">BP4+1</f>
-        <v>45792</v>
+        <v>45820</v>
       </c>
       <c r="BR4" s="52">
         <f t="shared" ref="BR4" si="15">BQ4+1</f>
-        <v>45793</v>
+        <v>45821</v>
       </c>
       <c r="BS4" s="52">
         <f t="shared" ref="BS4" si="16">BR4+1</f>
-        <v>45794</v>
+        <v>45822</v>
       </c>
       <c r="BT4" s="53">
         <f t="shared" ref="BT4" si="17">BS4+1</f>
-        <v>45795</v>
+        <v>45823</v>
       </c>
       <c r="BU4" s="51">
         <f t="shared" ref="BU4" si="18">BT4+1</f>
-        <v>45796</v>
+        <v>45824</v>
       </c>
       <c r="BV4" s="52">
         <f t="shared" ref="BV4" si="19">BU4+1</f>
-        <v>45797</v>
+        <v>45825</v>
       </c>
       <c r="BW4" s="52">
         <f t="shared" ref="BW4" si="20">BV4+1</f>
-        <v>45798</v>
+        <v>45826</v>
       </c>
       <c r="BX4" s="52">
         <f t="shared" ref="BX4" si="21">BW4+1</f>
-        <v>45799</v>
+        <v>45827</v>
       </c>
       <c r="BY4" s="52">
         <f t="shared" ref="BY4" si="22">BX4+1</f>
-        <v>45800</v>
+        <v>45828</v>
       </c>
       <c r="BZ4" s="52">
         <f t="shared" ref="BZ4" si="23">BY4+1</f>
-        <v>45801</v>
+        <v>45829</v>
       </c>
       <c r="CA4" s="53">
         <f t="shared" ref="CA4" si="24">BZ4+1</f>
-        <v>45802</v>
+        <v>45830</v>
       </c>
       <c r="CB4" s="51">
         <f t="shared" ref="CB4" si="25">CA4+1</f>
-        <v>45803</v>
+        <v>45831</v>
       </c>
       <c r="CC4" s="52">
         <f t="shared" ref="CC4" si="26">CB4+1</f>
-        <v>45804</v>
+        <v>45832</v>
       </c>
       <c r="CD4" s="52">
         <f t="shared" ref="CD4" si="27">CC4+1</f>
-        <v>45805</v>
+        <v>45833</v>
       </c>
       <c r="CE4" s="52">
         <f t="shared" ref="CE4" si="28">CD4+1</f>
-        <v>45806</v>
+        <v>45834</v>
       </c>
       <c r="CF4" s="52">
         <f t="shared" ref="CF4" si="29">CE4+1</f>
-        <v>45807</v>
+        <v>45835</v>
       </c>
       <c r="CG4" s="52">
         <f t="shared" ref="CG4" si="30">CF4+1</f>
-        <v>45808</v>
+        <v>45836</v>
       </c>
       <c r="CH4" s="53">
         <f t="shared" ref="CH4" si="31">CG4+1</f>
-        <v>45809</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="21.75" customHeight="1" spans="1:86">
@@ -7045,7 +7045,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="39">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="H37" s="40">
         <f t="shared" si="36"/>
@@ -7213,7 +7213,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="39">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="H39" s="40">
         <f t="shared" si="36"/>
@@ -7297,7 +7297,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="39">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="H40" s="40">
         <f t="shared" si="36"/>
@@ -7381,7 +7381,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="39">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="H41" s="40">
         <f t="shared" si="36"/>
@@ -7465,7 +7465,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="39">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="H42" s="40">
         <f t="shared" si="36"/>
@@ -7549,7 +7549,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="39">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="H43" s="40">
         <f t="shared" si="36"/>
@@ -7633,7 +7633,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="39">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="H44" s="40">
         <f t="shared" si="36"/>
@@ -7801,7 +7801,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="39">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="H46" s="40">
         <f t="shared" si="36"/>
@@ -7885,7 +7885,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="39">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="H47" s="40">
         <f t="shared" si="36"/>
@@ -7969,7 +7969,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="40">
         <f t="shared" si="36"/>
@@ -8137,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="40">
         <f t="shared" si="36"/>
@@ -8221,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="40">
         <f t="shared" si="36"/>
@@ -8305,7 +8305,7 @@
         <v>6</v>
       </c>
       <c r="G52" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="40">
         <f t="shared" si="36"/>
@@ -8389,7 +8389,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="40">
         <f t="shared" si="36"/>
@@ -8473,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="40">
         <f t="shared" si="36"/>
@@ -8557,7 +8557,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="40">
         <f t="shared" si="36"/>
@@ -8725,7 +8725,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="40">
         <f t="shared" si="36"/>
@@ -8971,7 +8971,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="40">
         <f t="shared" si="36"/>
@@ -9223,7 +9223,7 @@
         <v>8</v>
       </c>
       <c r="G63" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="40">
         <f t="shared" si="36"/>
@@ -9307,7 +9307,7 @@
         <v>8</v>
       </c>
       <c r="G64" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="40">
         <f t="shared" si="36"/>
@@ -9391,7 +9391,7 @@
         <v>8</v>
       </c>
       <c r="G65" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="40">
         <f t="shared" si="36"/>
@@ -9475,7 +9475,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="40">
         <f t="shared" si="36"/>
@@ -9643,7 +9643,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="40">
         <f t="shared" si="36"/>
@@ -9727,7 +9727,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="40">
         <f t="shared" si="36"/>
@@ -9895,7 +9895,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="40">
         <f t="shared" si="36"/>
@@ -9979,7 +9979,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="40">
         <f t="shared" si="36"/>
@@ -10063,7 +10063,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="40">
         <f t="shared" si="36"/>
@@ -10640,7 +10640,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6124ec96-08c3-4db4-9401-7765f0bc809b}</x14:id>
+          <x14:id>{1466a9d5-698a-48f6-8e53-ec9b885b6174}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10654,7 +10654,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51c700de-d379-45a0-af11-cac3f5cfc724}</x14:id>
+          <x14:id>{b958d93e-8725-4ab9-9d24-e3c15305c035}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10668,7 +10668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc62fdfb-5062-432d-aace-a362bf590a4c}</x14:id>
+          <x14:id>{a9b71d06-341b-48ea-863a-3f2503ec5a89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10682,7 +10682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e9bf3b08-d0ae-430f-a9f7-2d2fe39a212d}</x14:id>
+          <x14:id>{c7fe6398-dd39-4715-81a9-2833f0fbbd7c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10696,7 +10696,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{709128a6-1f63-4ca1-bedf-e0648c28e2bc}</x14:id>
+          <x14:id>{1e1f3eb4-e8c0-4f9b-b72a-32988fcf3416}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10710,7 +10710,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c268373c-d6cc-4016-a14c-6e0af0ebc775}</x14:id>
+          <x14:id>{f323b2e8-14ad-4498-be55-738784b0897c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10724,7 +10724,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0dff7cb-55bd-43e9-a386-10237b358098}</x14:id>
+          <x14:id>{ef692d1a-fa64-495d-bd80-b48d643d0e0d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10738,7 +10738,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42ff7b7f-c788-419d-97a9-10eb255e5f67}</x14:id>
+          <x14:id>{772c249d-b5e9-4533-a48a-dbe24f3aa0b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10752,7 +10752,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71617cf8-3916-4d1f-a9eb-f6354c1b9fc3}</x14:id>
+          <x14:id>{c43ba636-299d-4711-8c19-4fe6c5a4ea36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10766,7 +10766,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65cc4ccf-9dea-41e9-b272-e24b1d6138a6}</x14:id>
+          <x14:id>{c83f38fd-08e5-450c-b3cd-7f89e4dc5dd7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10780,7 +10780,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cf60d3f1-c1eb-48e9-b60a-87e74ccedb65}</x14:id>
+          <x14:id>{4c7f2da0-8648-4240-805a-c1705f6e442a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10794,7 +10794,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3eeaaa4d-057e-4d31-930a-bc65cfa8c27a}</x14:id>
+          <x14:id>{2f708ec7-bd4f-4c69-b3c9-4225e080f91b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10808,7 +10808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3178228c-e24e-4df9-bd0f-3365c18f48e0}</x14:id>
+          <x14:id>{be7de281-7c04-4020-a712-ba52ffb69c1d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10822,7 +10822,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4932d7f4-38b4-46ee-ae91-2ac13d7092fa}</x14:id>
+          <x14:id>{8dca5029-88d7-408d-aae8-c7f45b82fa7d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10836,7 +10836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11936743-f192-42ce-a175-c5fbd188494e}</x14:id>
+          <x14:id>{0b81a0f1-61f4-4ea3-a07e-6bd74dcbfef3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10850,7 +10850,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bcb92d7-16eb-4ada-bacc-75986e362611}</x14:id>
+          <x14:id>{0fb35522-a5c7-44b4-ac1e-3a22de48131f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10864,7 +10864,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13caf63c-6488-479f-bb94-50c8ae51e219}</x14:id>
+          <x14:id>{adb6a768-8536-4472-bfae-5ea56f98032b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10878,7 +10878,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c0da366-90e7-4d5a-9ae8-83d90d88071a}</x14:id>
+          <x14:id>{79c66d26-0f40-498c-ac64-c5773846fcc7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10892,7 +10892,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76ed84b0-b9c7-4fda-9839-1138dac65840}</x14:id>
+          <x14:id>{d8b2ecb2-9382-44e9-9bd2-8bfb98f23234}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10906,7 +10906,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75beee23-08b3-4b88-9879-e4512ddf21a1}</x14:id>
+          <x14:id>{692ea9c3-b876-49de-b47b-76f9e74e497e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10920,7 +10920,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a8c5d755-57e1-4615-909d-3d9a6b5fa143}</x14:id>
+          <x14:id>{b949f89a-e3dc-4e87-87e0-4690249f7488}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10934,7 +10934,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90ee0e63-274f-46f7-8e3d-48f8da030791}</x14:id>
+          <x14:id>{c2354d7b-3a2c-4d14-b20b-9061887606ab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10948,7 +10948,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f24506a-0289-4c30-a7ce-3056f4b9eb01}</x14:id>
+          <x14:id>{c2994e53-8220-4840-bcb1-8f631f811b73}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10962,7 +10962,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66efe3b3-b38e-4525-b98d-59a3ad00edf7}</x14:id>
+          <x14:id>{d279ed87-fddf-42a7-ba93-acc76b0b5dd1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10976,7 +10976,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02a838fd-a020-44f9-b23e-4096cda6dd26}</x14:id>
+          <x14:id>{363e401e-a05c-4580-b21d-b050d8798ca8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10990,7 +10990,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a73f24f-1427-4967-bbb0-cb7b8ccb9521}</x14:id>
+          <x14:id>{7480de7d-61a2-438e-81fb-e30e1db76b55}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11004,7 +11004,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93166e76-5de9-435c-b82d-de857e97dba2}</x14:id>
+          <x14:id>{6efe7180-edcf-42c4-9d76-d032d75b011f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11018,7 +11018,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d5efb42-26f5-4144-b6a9-2f8e9ba472c6}</x14:id>
+          <x14:id>{67553e8e-4541-402d-81d7-4b50943163d0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11032,7 +11032,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9da138df-e97f-490d-b0d3-d9529ae38774}</x14:id>
+          <x14:id>{1399ff0d-e5b2-4d15-957f-f8386f515a10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11046,7 +11046,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4c0aefc-9b6a-4e6f-9935-22a88461b9f1}</x14:id>
+          <x14:id>{7af822f2-4c9f-4dc0-8089-66b836e65334}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11060,7 +11060,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b25f0b85-22af-4a0f-a224-5b1c910d12ff}</x14:id>
+          <x14:id>{fe8bf79f-197d-4dd4-a185-75a79e2e5ead}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11074,7 +11074,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3123de7d-f292-42aa-969b-14dd1448087a}</x14:id>
+          <x14:id>{90677a36-0af5-4709-bfe9-f9aa8e07be93}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11088,7 +11088,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53318c30-11da-472e-97f3-14e83d934785}</x14:id>
+          <x14:id>{4a642363-8b7f-4251-9f0d-5452ee59c7ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11102,7 +11102,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{379d17fc-b22e-4a40-9f72-a6adbbbfdae6}</x14:id>
+          <x14:id>{3bb028d4-c75b-4c51-8fd6-dd15e13405e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11116,7 +11116,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a0308aab-9afa-47f7-ae10-0f2d7fbde484}</x14:id>
+          <x14:id>{dda9eca7-4764-47c4-89d0-80071cda36f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11130,7 +11130,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05bc3d64-cdcb-4cf5-b9ce-5c6a1cedd4e2}</x14:id>
+          <x14:id>{f17cce87-d7be-4344-8916-aaa79648d897}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11144,7 +11144,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78ff9149-c1f0-4e96-ae26-d2d6746a4192}</x14:id>
+          <x14:id>{7eb7a823-dbd5-467e-9151-b4993dbf32b7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11158,7 +11158,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9b0cc1c8-b92f-4073-8c73-84f2e933bb8d}</x14:id>
+          <x14:id>{46a73de0-eabb-4a1f-967b-a319838675f4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11172,7 +11172,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91b0a7e3-4c6b-4736-a438-21cb4b937416}</x14:id>
+          <x14:id>{01b86178-9c31-4469-aa1d-97ab8e2c44f2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11186,7 +11186,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{089bb85d-ac33-489f-bfbc-8f94c74e185c}</x14:id>
+          <x14:id>{7c9e65fd-2829-45c1-9c2d-a0c959fe4a6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11200,7 +11200,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45ffe16d-b779-4c85-9851-e160f668451c}</x14:id>
+          <x14:id>{6e803be5-8b5f-43dd-afe6-3ee273c3d979}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11225,7 +11225,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8f747d86-b726-4c97-b1d8-34310d7d6b88}</x14:id>
+          <x14:id>{76ad8eac-dcc2-44eb-85cd-a5b73eba1ad2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11239,7 +11239,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71a45138-59a5-4870-811b-27be4d6eabbe}</x14:id>
+          <x14:id>{6bebc1e9-6ea9-43f4-9d84-27af0065e64c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11253,7 +11253,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a496cabc-3070-4d0f-8649-a026a93f6143}</x14:id>
+          <x14:id>{402d2978-224d-4c31-ae21-b8876d9351de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11267,7 +11267,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9ba9360-fefe-46cb-b919-cea4d19ec22d}</x14:id>
+          <x14:id>{afb9d300-466c-4cce-a24d-d999326ecf33}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11429,8 +11429,8 @@
   <pageSetup paperSize="1" scale="60" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A11 A8 A17" formula="1"/>
-    <ignoredError sqref="D8 D11 F8:G8 F11:G11 A2 D17 F17:G17" unlockedFormula="1"/>
+    <ignoredError sqref="A17 A8 A11" formula="1"/>
+    <ignoredError sqref="F17:G17 D17 A2 F11:G11 F8:G8 D11 D8" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11466,7 +11466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6124ec96-08c3-4db4-9401-7765f0bc809b}">
+          <x14:cfRule type="dataBar" id="{1466a9d5-698a-48f6-8e53-ec9b885b6174}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11481,7 +11481,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51c700de-d379-45a0-af11-cac3f5cfc724}">
+          <x14:cfRule type="dataBar" id="{b958d93e-8725-4ab9-9d24-e3c15305c035}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11496,7 +11496,7 @@
           <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc62fdfb-5062-432d-aace-a362bf590a4c}">
+          <x14:cfRule type="dataBar" id="{a9b71d06-341b-48ea-863a-3f2503ec5a89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11511,7 +11511,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e9bf3b08-d0ae-430f-a9f7-2d2fe39a212d}">
+          <x14:cfRule type="dataBar" id="{c7fe6398-dd39-4715-81a9-2833f0fbbd7c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11526,7 +11526,7 @@
           <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{709128a6-1f63-4ca1-bedf-e0648c28e2bc}">
+          <x14:cfRule type="dataBar" id="{1e1f3eb4-e8c0-4f9b-b72a-32988fcf3416}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11541,7 +11541,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c268373c-d6cc-4016-a14c-6e0af0ebc775}">
+          <x14:cfRule type="dataBar" id="{f323b2e8-14ad-4498-be55-738784b0897c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11556,7 +11556,7 @@
           <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b0dff7cb-55bd-43e9-a386-10237b358098}">
+          <x14:cfRule type="dataBar" id="{ef692d1a-fa64-495d-bd80-b48d643d0e0d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11571,7 +11571,7 @@
           <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42ff7b7f-c788-419d-97a9-10eb255e5f67}">
+          <x14:cfRule type="dataBar" id="{772c249d-b5e9-4533-a48a-dbe24f3aa0b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11586,7 +11586,7 @@
           <xm:sqref>G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71617cf8-3916-4d1f-a9eb-f6354c1b9fc3}">
+          <x14:cfRule type="dataBar" id="{c43ba636-299d-4711-8c19-4fe6c5a4ea36}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11601,7 +11601,7 @@
           <xm:sqref>G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65cc4ccf-9dea-41e9-b272-e24b1d6138a6}">
+          <x14:cfRule type="dataBar" id="{c83f38fd-08e5-450c-b3cd-7f89e4dc5dd7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11616,7 +11616,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cf60d3f1-c1eb-48e9-b60a-87e74ccedb65}">
+          <x14:cfRule type="dataBar" id="{4c7f2da0-8648-4240-805a-c1705f6e442a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11631,7 +11631,7 @@
           <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3eeaaa4d-057e-4d31-930a-bc65cfa8c27a}">
+          <x14:cfRule type="dataBar" id="{2f708ec7-bd4f-4c69-b3c9-4225e080f91b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11646,7 +11646,7 @@
           <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3178228c-e24e-4df9-bd0f-3365c18f48e0}">
+          <x14:cfRule type="dataBar" id="{be7de281-7c04-4020-a712-ba52ffb69c1d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11661,7 +11661,7 @@
           <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4932d7f4-38b4-46ee-ae91-2ac13d7092fa}">
+          <x14:cfRule type="dataBar" id="{8dca5029-88d7-408d-aae8-c7f45b82fa7d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11676,7 +11676,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11936743-f192-42ce-a175-c5fbd188494e}">
+          <x14:cfRule type="dataBar" id="{0b81a0f1-61f4-4ea3-a07e-6bd74dcbfef3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11691,7 +11691,7 @@
           <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bcb92d7-16eb-4ada-bacc-75986e362611}">
+          <x14:cfRule type="dataBar" id="{0fb35522-a5c7-44b4-ac1e-3a22de48131f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11706,7 +11706,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13caf63c-6488-479f-bb94-50c8ae51e219}">
+          <x14:cfRule type="dataBar" id="{adb6a768-8536-4472-bfae-5ea56f98032b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11721,7 +11721,7 @@
           <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5c0da366-90e7-4d5a-9ae8-83d90d88071a}">
+          <x14:cfRule type="dataBar" id="{79c66d26-0f40-498c-ac64-c5773846fcc7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11736,7 +11736,7 @@
           <xm:sqref>G46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76ed84b0-b9c7-4fda-9839-1138dac65840}">
+          <x14:cfRule type="dataBar" id="{d8b2ecb2-9382-44e9-9bd2-8bfb98f23234}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11751,7 +11751,7 @@
           <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75beee23-08b3-4b88-9879-e4512ddf21a1}">
+          <x14:cfRule type="dataBar" id="{692ea9c3-b876-49de-b47b-76f9e74e497e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11766,7 +11766,7 @@
           <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a8c5d755-57e1-4615-909d-3d9a6b5fa143}">
+          <x14:cfRule type="dataBar" id="{b949f89a-e3dc-4e87-87e0-4690249f7488}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11781,7 +11781,7 @@
           <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90ee0e63-274f-46f7-8e3d-48f8da030791}">
+          <x14:cfRule type="dataBar" id="{c2354d7b-3a2c-4d14-b20b-9061887606ab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11796,7 +11796,7 @@
           <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f24506a-0289-4c30-a7ce-3056f4b9eb01}">
+          <x14:cfRule type="dataBar" id="{c2994e53-8220-4840-bcb1-8f631f811b73}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11811,7 +11811,7 @@
           <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66efe3b3-b38e-4525-b98d-59a3ad00edf7}">
+          <x14:cfRule type="dataBar" id="{d279ed87-fddf-42a7-ba93-acc76b0b5dd1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11826,7 +11826,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02a838fd-a020-44f9-b23e-4096cda6dd26}">
+          <x14:cfRule type="dataBar" id="{363e401e-a05c-4580-b21d-b050d8798ca8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11841,7 +11841,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2a73f24f-1427-4967-bbb0-cb7b8ccb9521}">
+          <x14:cfRule type="dataBar" id="{7480de7d-61a2-438e-81fb-e30e1db76b55}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11856,7 +11856,7 @@
           <xm:sqref>G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93166e76-5de9-435c-b82d-de857e97dba2}">
+          <x14:cfRule type="dataBar" id="{6efe7180-edcf-42c4-9d76-d032d75b011f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11871,7 +11871,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8d5efb42-26f5-4144-b6a9-2f8e9ba472c6}">
+          <x14:cfRule type="dataBar" id="{67553e8e-4541-402d-81d7-4b50943163d0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11886,7 +11886,7 @@
           <xm:sqref>G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9da138df-e97f-490d-b0d3-d9529ae38774}">
+          <x14:cfRule type="dataBar" id="{1399ff0d-e5b2-4d15-957f-f8386f515a10}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11901,7 +11901,7 @@
           <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e4c0aefc-9b6a-4e6f-9935-22a88461b9f1}">
+          <x14:cfRule type="dataBar" id="{7af822f2-4c9f-4dc0-8089-66b836e65334}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11916,7 +11916,7 @@
           <xm:sqref>G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b25f0b85-22af-4a0f-a224-5b1c910d12ff}">
+          <x14:cfRule type="dataBar" id="{fe8bf79f-197d-4dd4-a185-75a79e2e5ead}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11931,7 +11931,7 @@
           <xm:sqref>G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3123de7d-f292-42aa-969b-14dd1448087a}">
+          <x14:cfRule type="dataBar" id="{90677a36-0af5-4709-bfe9-f9aa8e07be93}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11946,7 +11946,7 @@
           <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{53318c30-11da-472e-97f3-14e83d934785}">
+          <x14:cfRule type="dataBar" id="{4a642363-8b7f-4251-9f0d-5452ee59c7ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11961,7 +11961,7 @@
           <xm:sqref>G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{379d17fc-b22e-4a40-9f72-a6adbbbfdae6}">
+          <x14:cfRule type="dataBar" id="{3bb028d4-c75b-4c51-8fd6-dd15e13405e8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11976,7 +11976,7 @@
           <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a0308aab-9afa-47f7-ae10-0f2d7fbde484}">
+          <x14:cfRule type="dataBar" id="{dda9eca7-4764-47c4-89d0-80071cda36f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11991,7 +11991,7 @@
           <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{05bc3d64-cdcb-4cf5-b9ce-5c6a1cedd4e2}">
+          <x14:cfRule type="dataBar" id="{f17cce87-d7be-4344-8916-aaa79648d897}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12006,7 +12006,7 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78ff9149-c1f0-4e96-ae26-d2d6746a4192}">
+          <x14:cfRule type="dataBar" id="{7eb7a823-dbd5-467e-9151-b4993dbf32b7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12021,7 +12021,7 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9b0cc1c8-b92f-4073-8c73-84f2e933bb8d}">
+          <x14:cfRule type="dataBar" id="{46a73de0-eabb-4a1f-967b-a319838675f4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12036,7 +12036,7 @@
           <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91b0a7e3-4c6b-4736-a438-21cb4b937416}">
+          <x14:cfRule type="dataBar" id="{01b86178-9c31-4469-aa1d-97ab8e2c44f2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12051,7 +12051,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{089bb85d-ac33-489f-bfbc-8f94c74e185c}">
+          <x14:cfRule type="dataBar" id="{7c9e65fd-2829-45c1-9c2d-a0c959fe4a6d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12066,7 +12066,7 @@
           <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45ffe16d-b779-4c85-9851-e160f668451c}">
+          <x14:cfRule type="dataBar" id="{6e803be5-8b5f-43dd-afe6-3ee273c3d979}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12081,7 +12081,7 @@
           <xm:sqref>G75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8f747d86-b726-4c97-b1d8-34310d7d6b88}">
+          <x14:cfRule type="dataBar" id="{76ad8eac-dcc2-44eb-85cd-a5b73eba1ad2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12096,7 +12096,7 @@
           <xm:sqref>G6:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71a45138-59a5-4870-811b-27be4d6eabbe}">
+          <x14:cfRule type="dataBar" id="{6bebc1e9-6ea9-43f4-9d84-27af0065e64c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12111,7 +12111,7 @@
           <xm:sqref>G36:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a496cabc-3070-4d0f-8649-a026a93f6143}">
+          <x14:cfRule type="dataBar" id="{402d2978-224d-4c31-ae21-b8876d9351de}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12126,7 +12126,7 @@
           <xm:sqref>G59:G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a9ba9360-fefe-46cb-b919-cea4d19ec22d}">
+          <x14:cfRule type="dataBar" id="{afb9d300-466c-4cce-a24d-d999326ecf33}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/各类图表/甘特图.xlsx
+++ b/各类图表/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6855" activeTab="2"/>
+    <workbookView windowWidth="18900" windowHeight="8655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="13" r:id="rId1"/>
@@ -2202,7 +2202,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$2" horiz="1" max="100" min="1" val="8"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$2" horiz="1" max="100" min="1" val="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,10 +3627,10 @@
   </sheetPr>
   <dimension ref="A1:CH78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="BO86" sqref="BO86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75"/>
@@ -3670,7 +3670,7 @@
       <c r="E2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U2" s="63" t="s">
         <v>15</v>
@@ -3690,7 +3690,7 @@
       <c r="H3" s="20"/>
       <c r="J3" s="48" t="str">
         <f>"第 "&amp;(J4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 8 周</v>
+        <v>第 10 周</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
@@ -3700,7 +3700,7 @@
       <c r="P3" s="50"/>
       <c r="Q3" s="48" t="str">
         <f>"第 "&amp;(Q4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 9 周</v>
+        <v>第 11 周</v>
       </c>
       <c r="R3" s="49"/>
       <c r="S3" s="49"/>
@@ -3710,7 +3710,7 @@
       <c r="W3" s="50"/>
       <c r="X3" s="48" t="str">
         <f t="shared" ref="X3" si="0">"第 "&amp;(X4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 10 周</v>
+        <v>第 12 周</v>
       </c>
       <c r="Y3" s="49"/>
       <c r="Z3" s="49"/>
@@ -3720,7 +3720,7 @@
       <c r="AD3" s="50"/>
       <c r="AE3" s="48" t="str">
         <f t="shared" ref="AE3" si="1">"第 "&amp;(AE4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 11 周</v>
+        <v>第 13 周</v>
       </c>
       <c r="AF3" s="49"/>
       <c r="AG3" s="49"/>
@@ -3730,7 +3730,7 @@
       <c r="AK3" s="50"/>
       <c r="AL3" s="48" t="str">
         <f t="shared" ref="AL3" si="2">"第 "&amp;(AL4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 12 周</v>
+        <v>第 14 周</v>
       </c>
       <c r="AM3" s="49"/>
       <c r="AN3" s="49"/>
@@ -3740,7 +3740,7 @@
       <c r="AR3" s="50"/>
       <c r="AS3" s="48" t="str">
         <f t="shared" ref="AS3" si="3">"第 "&amp;(AS4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 13 周</v>
+        <v>第 15 周</v>
       </c>
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
@@ -3750,7 +3750,7 @@
       <c r="AY3" s="50"/>
       <c r="AZ3" s="48" t="str">
         <f t="shared" ref="AZ3" si="4">"第 "&amp;(AZ4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 14 周</v>
+        <v>第 16 周</v>
       </c>
       <c r="BA3" s="49"/>
       <c r="BB3" s="49"/>
@@ -3760,7 +3760,7 @@
       <c r="BF3" s="50"/>
       <c r="BG3" s="48" t="str">
         <f t="shared" ref="BG3" si="5">"第 "&amp;(BG4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 15 周</v>
+        <v>第 17 周</v>
       </c>
       <c r="BH3" s="49"/>
       <c r="BI3" s="49"/>
@@ -3770,7 +3770,7 @@
       <c r="BM3" s="50"/>
       <c r="BN3" s="48" t="str">
         <f t="shared" ref="BN3" si="6">"第 "&amp;(BN4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 16 周</v>
+        <v>第 18 周</v>
       </c>
       <c r="BO3" s="49"/>
       <c r="BP3" s="49"/>
@@ -3780,7 +3780,7 @@
       <c r="BT3" s="50"/>
       <c r="BU3" s="48" t="str">
         <f t="shared" ref="BU3" si="7">"第 "&amp;(BU4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 17 周</v>
+        <v>第 19 周</v>
       </c>
       <c r="BV3" s="49"/>
       <c r="BW3" s="49"/>
@@ -3790,7 +3790,7 @@
       <c r="CA3" s="50"/>
       <c r="CB3" s="48" t="str">
         <f t="shared" ref="CB3" si="8">"第 "&amp;(CB4-($C$3-WEEKDAY($C$3,1)+2))/7+1&amp;" 周"</f>
-        <v>第 18 周</v>
+        <v>第 20 周</v>
       </c>
       <c r="CC3" s="49"/>
       <c r="CD3" s="49"/>
@@ -3811,311 +3811,311 @@
       <c r="I4" s="22"/>
       <c r="J4" s="51">
         <f>C3-WEEKDAY(C3,1)+2+7*(H2-1)</f>
-        <v>45761</v>
+        <v>45775</v>
       </c>
       <c r="K4" s="52">
         <f t="shared" ref="K4:AP4" si="9">J4+1</f>
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="L4" s="52">
         <f t="shared" si="9"/>
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="M4" s="52">
         <f t="shared" si="9"/>
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="N4" s="52">
         <f t="shared" si="9"/>
-        <v>45765</v>
+        <v>45779</v>
       </c>
       <c r="O4" s="52">
         <f t="shared" si="9"/>
-        <v>45766</v>
+        <v>45780</v>
       </c>
       <c r="P4" s="53">
         <f t="shared" si="9"/>
-        <v>45767</v>
+        <v>45781</v>
       </c>
       <c r="Q4" s="51">
         <f t="shared" si="9"/>
-        <v>45768</v>
+        <v>45782</v>
       </c>
       <c r="R4" s="52">
         <f t="shared" si="9"/>
-        <v>45769</v>
+        <v>45783</v>
       </c>
       <c r="S4" s="52">
         <f t="shared" si="9"/>
-        <v>45770</v>
+        <v>45784</v>
       </c>
       <c r="T4" s="52">
         <f t="shared" si="9"/>
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="U4" s="52">
         <f t="shared" si="9"/>
-        <v>45772</v>
+        <v>45786</v>
       </c>
       <c r="V4" s="52">
         <f t="shared" si="9"/>
-        <v>45773</v>
+        <v>45787</v>
       </c>
       <c r="W4" s="53">
         <f t="shared" si="9"/>
-        <v>45774</v>
+        <v>45788</v>
       </c>
       <c r="X4" s="51">
         <f t="shared" si="9"/>
-        <v>45775</v>
+        <v>45789</v>
       </c>
       <c r="Y4" s="52">
         <f t="shared" si="9"/>
-        <v>45776</v>
+        <v>45790</v>
       </c>
       <c r="Z4" s="52">
         <f t="shared" si="9"/>
-        <v>45777</v>
+        <v>45791</v>
       </c>
       <c r="AA4" s="52">
         <f t="shared" si="9"/>
-        <v>45778</v>
+        <v>45792</v>
       </c>
       <c r="AB4" s="52">
         <f t="shared" si="9"/>
-        <v>45779</v>
+        <v>45793</v>
       </c>
       <c r="AC4" s="52">
         <f t="shared" si="9"/>
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="AD4" s="53">
         <f t="shared" si="9"/>
-        <v>45781</v>
+        <v>45795</v>
       </c>
       <c r="AE4" s="51">
         <f t="shared" si="9"/>
-        <v>45782</v>
+        <v>45796</v>
       </c>
       <c r="AF4" s="52">
         <f t="shared" si="9"/>
-        <v>45783</v>
+        <v>45797</v>
       </c>
       <c r="AG4" s="52">
         <f t="shared" si="9"/>
-        <v>45784</v>
+        <v>45798</v>
       </c>
       <c r="AH4" s="52">
         <f t="shared" si="9"/>
-        <v>45785</v>
+        <v>45799</v>
       </c>
       <c r="AI4" s="52">
         <f t="shared" si="9"/>
-        <v>45786</v>
+        <v>45800</v>
       </c>
       <c r="AJ4" s="52">
         <f t="shared" si="9"/>
-        <v>45787</v>
+        <v>45801</v>
       </c>
       <c r="AK4" s="53">
         <f t="shared" si="9"/>
-        <v>45788</v>
+        <v>45802</v>
       </c>
       <c r="AL4" s="51">
         <f t="shared" si="9"/>
-        <v>45789</v>
+        <v>45803</v>
       </c>
       <c r="AM4" s="52">
         <f t="shared" si="9"/>
-        <v>45790</v>
+        <v>45804</v>
       </c>
       <c r="AN4" s="52">
         <f t="shared" si="9"/>
-        <v>45791</v>
+        <v>45805</v>
       </c>
       <c r="AO4" s="52">
         <f t="shared" si="9"/>
-        <v>45792</v>
+        <v>45806</v>
       </c>
       <c r="AP4" s="52">
         <f t="shared" si="9"/>
-        <v>45793</v>
+        <v>45807</v>
       </c>
       <c r="AQ4" s="52">
         <f t="shared" ref="AQ4:BM4" si="10">AP4+1</f>
-        <v>45794</v>
+        <v>45808</v>
       </c>
       <c r="AR4" s="53">
         <f t="shared" si="10"/>
-        <v>45795</v>
+        <v>45809</v>
       </c>
       <c r="AS4" s="51">
         <f t="shared" si="10"/>
-        <v>45796</v>
+        <v>45810</v>
       </c>
       <c r="AT4" s="52">
         <f t="shared" si="10"/>
-        <v>45797</v>
+        <v>45811</v>
       </c>
       <c r="AU4" s="52">
         <f t="shared" si="10"/>
-        <v>45798</v>
+        <v>45812</v>
       </c>
       <c r="AV4" s="52">
         <f t="shared" si="10"/>
-        <v>45799</v>
+        <v>45813</v>
       </c>
       <c r="AW4" s="52">
         <f t="shared" si="10"/>
-        <v>45800</v>
+        <v>45814</v>
       </c>
       <c r="AX4" s="52">
         <f t="shared" si="10"/>
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="AY4" s="53">
         <f t="shared" si="10"/>
-        <v>45802</v>
+        <v>45816</v>
       </c>
       <c r="AZ4" s="51">
         <f t="shared" si="10"/>
-        <v>45803</v>
+        <v>45817</v>
       </c>
       <c r="BA4" s="52">
         <f t="shared" si="10"/>
-        <v>45804</v>
+        <v>45818</v>
       </c>
       <c r="BB4" s="52">
         <f t="shared" si="10"/>
-        <v>45805</v>
+        <v>45819</v>
       </c>
       <c r="BC4" s="52">
         <f t="shared" si="10"/>
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="BD4" s="52">
         <f t="shared" si="10"/>
-        <v>45807</v>
+        <v>45821</v>
       </c>
       <c r="BE4" s="52">
         <f t="shared" si="10"/>
-        <v>45808</v>
+        <v>45822</v>
       </c>
       <c r="BF4" s="53">
         <f t="shared" si="10"/>
-        <v>45809</v>
+        <v>45823</v>
       </c>
       <c r="BG4" s="51">
         <f t="shared" si="10"/>
-        <v>45810</v>
+        <v>45824</v>
       </c>
       <c r="BH4" s="52">
         <f t="shared" si="10"/>
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="BI4" s="52">
         <f t="shared" si="10"/>
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="BJ4" s="52">
         <f t="shared" si="10"/>
-        <v>45813</v>
+        <v>45827</v>
       </c>
       <c r="BK4" s="52">
         <f t="shared" si="10"/>
-        <v>45814</v>
+        <v>45828</v>
       </c>
       <c r="BL4" s="52">
         <f t="shared" si="10"/>
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="BM4" s="53">
         <f t="shared" si="10"/>
-        <v>45816</v>
+        <v>45830</v>
       </c>
       <c r="BN4" s="51">
         <f t="shared" ref="BN4" si="11">BM4+1</f>
-        <v>45817</v>
+        <v>45831</v>
       </c>
       <c r="BO4" s="52">
         <f t="shared" ref="BO4" si="12">BN4+1</f>
-        <v>45818</v>
+        <v>45832</v>
       </c>
       <c r="BP4" s="52">
         <f t="shared" ref="BP4" si="13">BO4+1</f>
-        <v>45819</v>
+        <v>45833</v>
       </c>
       <c r="BQ4" s="52">
         <f t="shared" ref="BQ4" si="14">BP4+1</f>
-        <v>45820</v>
+        <v>45834</v>
       </c>
       <c r="BR4" s="52">
         <f t="shared" ref="BR4" si="15">BQ4+1</f>
-        <v>45821</v>
+        <v>45835</v>
       </c>
       <c r="BS4" s="52">
         <f t="shared" ref="BS4" si="16">BR4+1</f>
-        <v>45822</v>
+        <v>45836</v>
       </c>
       <c r="BT4" s="53">
         <f t="shared" ref="BT4" si="17">BS4+1</f>
-        <v>45823</v>
+        <v>45837</v>
       </c>
       <c r="BU4" s="51">
         <f t="shared" ref="BU4" si="18">BT4+1</f>
-        <v>45824</v>
+        <v>45838</v>
       </c>
       <c r="BV4" s="52">
         <f t="shared" ref="BV4" si="19">BU4+1</f>
-        <v>45825</v>
+        <v>45839</v>
       </c>
       <c r="BW4" s="52">
         <f t="shared" ref="BW4" si="20">BV4+1</f>
-        <v>45826</v>
+        <v>45840</v>
       </c>
       <c r="BX4" s="52">
         <f t="shared" ref="BX4" si="21">BW4+1</f>
-        <v>45827</v>
+        <v>45841</v>
       </c>
       <c r="BY4" s="52">
         <f t="shared" ref="BY4" si="22">BX4+1</f>
-        <v>45828</v>
+        <v>45842</v>
       </c>
       <c r="BZ4" s="52">
         <f t="shared" ref="BZ4" si="23">BY4+1</f>
-        <v>45829</v>
+        <v>45843</v>
       </c>
       <c r="CA4" s="53">
         <f t="shared" ref="CA4" si="24">BZ4+1</f>
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="CB4" s="51">
         <f t="shared" ref="CB4" si="25">CA4+1</f>
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="CC4" s="52">
         <f t="shared" ref="CC4" si="26">CB4+1</f>
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="CD4" s="52">
         <f t="shared" ref="CD4" si="27">CC4+1</f>
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="CE4" s="52">
         <f t="shared" ref="CE4" si="28">CD4+1</f>
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="CF4" s="52">
         <f t="shared" ref="CF4" si="29">CE4+1</f>
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="CG4" s="52">
         <f t="shared" ref="CG4" si="30">CF4+1</f>
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="CH4" s="53">
         <f t="shared" ref="CH4" si="31">CG4+1</f>
-        <v>45837</v>
+        <v>45851</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="21.75" customHeight="1" spans="1:86">
@@ -7129,7 +7129,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="39">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="H38" s="40">
         <f t="shared" si="36"/>
@@ -7717,7 +7717,7 @@
         <v>19</v>
       </c>
       <c r="G45" s="39">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="H45" s="40">
         <f t="shared" si="36"/>
@@ -7885,7 +7885,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="39">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="H47" s="40">
         <f t="shared" si="36"/>
@@ -8053,7 +8053,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="40">
         <f t="shared" si="36"/>
@@ -8641,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="40">
         <f t="shared" si="36"/>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="40">
         <f t="shared" si="36"/>
@@ -9055,7 +9055,7 @@
         <v>5</v>
       </c>
       <c r="G61" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="40">
         <f t="shared" si="36"/>
@@ -9139,7 +9139,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="40">
         <f t="shared" si="36"/>
@@ -9559,7 +9559,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="40">
         <f t="shared" si="36"/>
@@ -9811,7 +9811,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="40">
         <f t="shared" si="36"/>
@@ -10147,7 +10147,7 @@
         <v>5</v>
       </c>
       <c r="G74" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="40">
         <f t="shared" si="36"/>
@@ -10231,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="40">
         <f t="shared" ref="H75:H78" si="38">IF(OR(E75=0,D75=0)," - ",NETWORKDAYS(D75,E75))</f>
@@ -10393,7 +10393,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H77" s="40">
         <f t="shared" si="38"/>
@@ -10640,7 +10640,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1466a9d5-698a-48f6-8e53-ec9b885b6174}</x14:id>
+          <x14:id>{36c68853-0e14-498d-bda5-7b9e9eac9ff7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10654,7 +10654,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b958d93e-8725-4ab9-9d24-e3c15305c035}</x14:id>
+          <x14:id>{dfee9046-fd7e-484a-9399-fbe060d02fbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10668,7 +10668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9b71d06-341b-48ea-863a-3f2503ec5a89}</x14:id>
+          <x14:id>{ac4ede9b-8fc6-43d3-b3a6-d5d588c0ecce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10682,7 +10682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c7fe6398-dd39-4715-81a9-2833f0fbbd7c}</x14:id>
+          <x14:id>{4effd8cf-7107-40cf-ab30-39ed6df15953}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10696,7 +10696,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e1f3eb4-e8c0-4f9b-b72a-32988fcf3416}</x14:id>
+          <x14:id>{843ddeed-d832-442c-878c-c40a2b3617bc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10710,7 +10710,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f323b2e8-14ad-4498-be55-738784b0897c}</x14:id>
+          <x14:id>{a60d4b6d-41c3-4fba-b001-abea6b857eb5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10724,7 +10724,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef692d1a-fa64-495d-bd80-b48d643d0e0d}</x14:id>
+          <x14:id>{0baf0830-854e-4f71-b00f-9f0648f0df15}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10738,7 +10738,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{772c249d-b5e9-4533-a48a-dbe24f3aa0b8}</x14:id>
+          <x14:id>{2b3a77c0-7c44-4be5-bff0-9aaa360b9312}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10752,7 +10752,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c43ba636-299d-4711-8c19-4fe6c5a4ea36}</x14:id>
+          <x14:id>{f93de6ca-a0d9-45cb-a384-153de8e504d2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10766,7 +10766,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c83f38fd-08e5-450c-b3cd-7f89e4dc5dd7}</x14:id>
+          <x14:id>{9351f9e5-c766-47cb-b164-d9f49524af30}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10780,7 +10780,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c7f2da0-8648-4240-805a-c1705f6e442a}</x14:id>
+          <x14:id>{442ef337-07f7-4a27-a836-69d13b90251e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10794,7 +10794,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f708ec7-bd4f-4c69-b3c9-4225e080f91b}</x14:id>
+          <x14:id>{cb641477-8139-4965-870b-c4ef770dee76}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10808,7 +10808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be7de281-7c04-4020-a712-ba52ffb69c1d}</x14:id>
+          <x14:id>{e03120d9-846a-4309-8c03-8e49d8f2ee23}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10822,7 +10822,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dca5029-88d7-408d-aae8-c7f45b82fa7d}</x14:id>
+          <x14:id>{c1ff3adb-cde8-4e0c-8dc7-0cbd5db1ccc5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10836,7 +10836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b81a0f1-61f4-4ea3-a07e-6bd74dcbfef3}</x14:id>
+          <x14:id>{eca6b50a-ff33-4d97-a04d-ea3811723c3b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10850,7 +10850,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0fb35522-a5c7-44b4-ac1e-3a22de48131f}</x14:id>
+          <x14:id>{0f1d7bf2-a855-46f4-bb85-b3b83ebce277}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10864,7 +10864,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adb6a768-8536-4472-bfae-5ea56f98032b}</x14:id>
+          <x14:id>{52b09a3f-23f2-408e-9df3-2fc86f21c331}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10878,7 +10878,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79c66d26-0f40-498c-ac64-c5773846fcc7}</x14:id>
+          <x14:id>{4aa4d8f9-bc36-451c-a1d4-841ad647a675}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10892,7 +10892,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d8b2ecb2-9382-44e9-9bd2-8bfb98f23234}</x14:id>
+          <x14:id>{0ca921be-f1b1-4f9d-a983-f2cc81581468}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10906,7 +10906,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{692ea9c3-b876-49de-b47b-76f9e74e497e}</x14:id>
+          <x14:id>{2accb556-46f5-4c75-9292-0886f0efdc8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10920,7 +10920,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b949f89a-e3dc-4e87-87e0-4690249f7488}</x14:id>
+          <x14:id>{732bc0dd-545f-4309-890e-dd25fa919695}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10934,7 +10934,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c2354d7b-3a2c-4d14-b20b-9061887606ab}</x14:id>
+          <x14:id>{c087e79d-db83-47b1-aecd-b518119d90f0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10948,7 +10948,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c2994e53-8220-4840-bcb1-8f631f811b73}</x14:id>
+          <x14:id>{833faa53-0924-439b-949a-8ed00f847ef8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10962,7 +10962,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d279ed87-fddf-42a7-ba93-acc76b0b5dd1}</x14:id>
+          <x14:id>{a6ebdaa9-8d98-40d0-99de-a05bf5dc80a4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10976,7 +10976,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{363e401e-a05c-4580-b21d-b050d8798ca8}</x14:id>
+          <x14:id>{8ab8b5a4-2060-476a-bb04-dd6192637d1e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10990,7 +10990,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7480de7d-61a2-438e-81fb-e30e1db76b55}</x14:id>
+          <x14:id>{338e5921-d730-45ff-afd5-aea10f6ce2ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11004,7 +11004,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6efe7180-edcf-42c4-9d76-d032d75b011f}</x14:id>
+          <x14:id>{8eddc138-527d-4ae4-89e9-0a7fca39b28d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11018,7 +11018,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67553e8e-4541-402d-81d7-4b50943163d0}</x14:id>
+          <x14:id>{3f78e07e-6910-4c9a-b785-aedbd9002a4f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11032,7 +11032,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1399ff0d-e5b2-4d15-957f-f8386f515a10}</x14:id>
+          <x14:id>{48f4d256-e727-47a6-82bd-9fd5243ec3da}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11046,7 +11046,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7af822f2-4c9f-4dc0-8089-66b836e65334}</x14:id>
+          <x14:id>{2788c365-020a-4813-b146-57ad938379ff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11060,7 +11060,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fe8bf79f-197d-4dd4-a185-75a79e2e5ead}</x14:id>
+          <x14:id>{c7815520-4b4d-4a0e-aa1e-76af2d558b29}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11074,7 +11074,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90677a36-0af5-4709-bfe9-f9aa8e07be93}</x14:id>
+          <x14:id>{64d6bf05-aacf-4710-9985-1f78fd55c88e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11088,7 +11088,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4a642363-8b7f-4251-9f0d-5452ee59c7ad}</x14:id>
+          <x14:id>{d4b7c032-550c-434b-9565-9c6e39203d11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11102,7 +11102,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3bb028d4-c75b-4c51-8fd6-dd15e13405e8}</x14:id>
+          <x14:id>{4ee763e5-0b93-49c8-91d0-35efd834da45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11116,7 +11116,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dda9eca7-4764-47c4-89d0-80071cda36f1}</x14:id>
+          <x14:id>{d55df67a-867e-44af-ac24-7f8bc22c942e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11130,7 +11130,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f17cce87-d7be-4344-8916-aaa79648d897}</x14:id>
+          <x14:id>{906dfc4e-0dae-43d0-a3a9-0bc6d17eed8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11144,7 +11144,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7eb7a823-dbd5-467e-9151-b4993dbf32b7}</x14:id>
+          <x14:id>{96789bde-63bd-4d59-9381-5c331a3f8a06}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11158,7 +11158,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46a73de0-eabb-4a1f-967b-a319838675f4}</x14:id>
+          <x14:id>{1ccaac22-1a63-4635-b3d8-1d387ebe16a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11172,7 +11172,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01b86178-9c31-4469-aa1d-97ab8e2c44f2}</x14:id>
+          <x14:id>{04151f6b-8aeb-4ba9-9e29-8fd0ae53d5c3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11186,7 +11186,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c9e65fd-2829-45c1-9c2d-a0c959fe4a6d}</x14:id>
+          <x14:id>{f9366f42-283c-4bf0-aae1-5cbde1fb2cec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11200,7 +11200,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e803be5-8b5f-43dd-afe6-3ee273c3d979}</x14:id>
+          <x14:id>{32dc2037-83a7-4b05-971b-7f3649e217ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11225,7 +11225,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76ad8eac-dcc2-44eb-85cd-a5b73eba1ad2}</x14:id>
+          <x14:id>{12493fe5-820b-476e-8823-522141104ab4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11239,7 +11239,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6bebc1e9-6ea9-43f4-9d84-27af0065e64c}</x14:id>
+          <x14:id>{bcdb9156-130c-408f-bad7-c9b3d099dd17}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11253,7 +11253,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{402d2978-224d-4c31-ae21-b8876d9351de}</x14:id>
+          <x14:id>{8c2a7987-db05-429f-81df-b91db5467129}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11267,7 +11267,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{afb9d300-466c-4cce-a24d-d999326ecf33}</x14:id>
+          <x14:id>{ec7ec91c-a1dc-43e6-bebd-0b3eec828850}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11429,8 +11429,8 @@
   <pageSetup paperSize="1" scale="60" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A17 A8 A11" formula="1"/>
-    <ignoredError sqref="F17:G17 D17 A2 F11:G11 F8:G8 D11 D8" unlockedFormula="1"/>
+    <ignoredError sqref="A11 A8 A17" formula="1"/>
+    <ignoredError sqref="D8 D11 F8:G8 F11:G11 A2 D17 F17:G17" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11466,7 +11466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1466a9d5-698a-48f6-8e53-ec9b885b6174}">
+          <x14:cfRule type="dataBar" id="{36c68853-0e14-498d-bda5-7b9e9eac9ff7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11481,7 +11481,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b958d93e-8725-4ab9-9d24-e3c15305c035}">
+          <x14:cfRule type="dataBar" id="{dfee9046-fd7e-484a-9399-fbe060d02fbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11496,7 +11496,7 @@
           <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a9b71d06-341b-48ea-863a-3f2503ec5a89}">
+          <x14:cfRule type="dataBar" id="{ac4ede9b-8fc6-43d3-b3a6-d5d588c0ecce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11511,7 +11511,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c7fe6398-dd39-4715-81a9-2833f0fbbd7c}">
+          <x14:cfRule type="dataBar" id="{4effd8cf-7107-40cf-ab30-39ed6df15953}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11526,7 +11526,7 @@
           <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1e1f3eb4-e8c0-4f9b-b72a-32988fcf3416}">
+          <x14:cfRule type="dataBar" id="{843ddeed-d832-442c-878c-c40a2b3617bc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11541,7 +11541,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f323b2e8-14ad-4498-be55-738784b0897c}">
+          <x14:cfRule type="dataBar" id="{a60d4b6d-41c3-4fba-b001-abea6b857eb5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11556,7 +11556,7 @@
           <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ef692d1a-fa64-495d-bd80-b48d643d0e0d}">
+          <x14:cfRule type="dataBar" id="{0baf0830-854e-4f71-b00f-9f0648f0df15}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11571,7 +11571,7 @@
           <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{772c249d-b5e9-4533-a48a-dbe24f3aa0b8}">
+          <x14:cfRule type="dataBar" id="{2b3a77c0-7c44-4be5-bff0-9aaa360b9312}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11586,7 +11586,7 @@
           <xm:sqref>G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c43ba636-299d-4711-8c19-4fe6c5a4ea36}">
+          <x14:cfRule type="dataBar" id="{f93de6ca-a0d9-45cb-a384-153de8e504d2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11601,7 +11601,7 @@
           <xm:sqref>G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c83f38fd-08e5-450c-b3cd-7f89e4dc5dd7}">
+          <x14:cfRule type="dataBar" id="{9351f9e5-c766-47cb-b164-d9f49524af30}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11616,7 +11616,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c7f2da0-8648-4240-805a-c1705f6e442a}">
+          <x14:cfRule type="dataBar" id="{442ef337-07f7-4a27-a836-69d13b90251e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11631,7 +11631,7 @@
           <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f708ec7-bd4f-4c69-b3c9-4225e080f91b}">
+          <x14:cfRule type="dataBar" id="{cb641477-8139-4965-870b-c4ef770dee76}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11646,7 +11646,7 @@
           <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{be7de281-7c04-4020-a712-ba52ffb69c1d}">
+          <x14:cfRule type="dataBar" id="{e03120d9-846a-4309-8c03-8e49d8f2ee23}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11661,7 +11661,7 @@
           <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dca5029-88d7-408d-aae8-c7f45b82fa7d}">
+          <x14:cfRule type="dataBar" id="{c1ff3adb-cde8-4e0c-8dc7-0cbd5db1ccc5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11676,7 +11676,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0b81a0f1-61f4-4ea3-a07e-6bd74dcbfef3}">
+          <x14:cfRule type="dataBar" id="{eca6b50a-ff33-4d97-a04d-ea3811723c3b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11691,7 +11691,7 @@
           <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0fb35522-a5c7-44b4-ac1e-3a22de48131f}">
+          <x14:cfRule type="dataBar" id="{0f1d7bf2-a855-46f4-bb85-b3b83ebce277}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11706,7 +11706,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adb6a768-8536-4472-bfae-5ea56f98032b}">
+          <x14:cfRule type="dataBar" id="{52b09a3f-23f2-408e-9df3-2fc86f21c331}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11721,7 +11721,7 @@
           <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79c66d26-0f40-498c-ac64-c5773846fcc7}">
+          <x14:cfRule type="dataBar" id="{4aa4d8f9-bc36-451c-a1d4-841ad647a675}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11736,7 +11736,7 @@
           <xm:sqref>G46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d8b2ecb2-9382-44e9-9bd2-8bfb98f23234}">
+          <x14:cfRule type="dataBar" id="{0ca921be-f1b1-4f9d-a983-f2cc81581468}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11751,7 +11751,7 @@
           <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{692ea9c3-b876-49de-b47b-76f9e74e497e}">
+          <x14:cfRule type="dataBar" id="{2accb556-46f5-4c75-9292-0886f0efdc8b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11766,7 +11766,7 @@
           <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b949f89a-e3dc-4e87-87e0-4690249f7488}">
+          <x14:cfRule type="dataBar" id="{732bc0dd-545f-4309-890e-dd25fa919695}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11781,7 +11781,7 @@
           <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c2354d7b-3a2c-4d14-b20b-9061887606ab}">
+          <x14:cfRule type="dataBar" id="{c087e79d-db83-47b1-aecd-b518119d90f0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11796,7 +11796,7 @@
           <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c2994e53-8220-4840-bcb1-8f631f811b73}">
+          <x14:cfRule type="dataBar" id="{833faa53-0924-439b-949a-8ed00f847ef8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11811,7 +11811,7 @@
           <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d279ed87-fddf-42a7-ba93-acc76b0b5dd1}">
+          <x14:cfRule type="dataBar" id="{a6ebdaa9-8d98-40d0-99de-a05bf5dc80a4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11826,7 +11826,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{363e401e-a05c-4580-b21d-b050d8798ca8}">
+          <x14:cfRule type="dataBar" id="{8ab8b5a4-2060-476a-bb04-dd6192637d1e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11841,7 +11841,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7480de7d-61a2-438e-81fb-e30e1db76b55}">
+          <x14:cfRule type="dataBar" id="{338e5921-d730-45ff-afd5-aea10f6ce2ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11856,7 +11856,7 @@
           <xm:sqref>G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6efe7180-edcf-42c4-9d76-d032d75b011f}">
+          <x14:cfRule type="dataBar" id="{8eddc138-527d-4ae4-89e9-0a7fca39b28d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11871,7 +11871,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67553e8e-4541-402d-81d7-4b50943163d0}">
+          <x14:cfRule type="dataBar" id="{3f78e07e-6910-4c9a-b785-aedbd9002a4f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11886,7 +11886,7 @@
           <xm:sqref>G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1399ff0d-e5b2-4d15-957f-f8386f515a10}">
+          <x14:cfRule type="dataBar" id="{48f4d256-e727-47a6-82bd-9fd5243ec3da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11901,7 +11901,7 @@
           <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7af822f2-4c9f-4dc0-8089-66b836e65334}">
+          <x14:cfRule type="dataBar" id="{2788c365-020a-4813-b146-57ad938379ff}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11916,7 +11916,7 @@
           <xm:sqref>G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fe8bf79f-197d-4dd4-a185-75a79e2e5ead}">
+          <x14:cfRule type="dataBar" id="{c7815520-4b4d-4a0e-aa1e-76af2d558b29}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11931,7 +11931,7 @@
           <xm:sqref>G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90677a36-0af5-4709-bfe9-f9aa8e07be93}">
+          <x14:cfRule type="dataBar" id="{64d6bf05-aacf-4710-9985-1f78fd55c88e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11946,7 +11946,7 @@
           <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4a642363-8b7f-4251-9f0d-5452ee59c7ad}">
+          <x14:cfRule type="dataBar" id="{d4b7c032-550c-434b-9565-9c6e39203d11}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11961,7 +11961,7 @@
           <xm:sqref>G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3bb028d4-c75b-4c51-8fd6-dd15e13405e8}">
+          <x14:cfRule type="dataBar" id="{4ee763e5-0b93-49c8-91d0-35efd834da45}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11976,7 +11976,7 @@
           <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dda9eca7-4764-47c4-89d0-80071cda36f1}">
+          <x14:cfRule type="dataBar" id="{d55df67a-867e-44af-ac24-7f8bc22c942e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11991,7 +11991,7 @@
           <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f17cce87-d7be-4344-8916-aaa79648d897}">
+          <x14:cfRule type="dataBar" id="{906dfc4e-0dae-43d0-a3a9-0bc6d17eed8b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12006,7 +12006,7 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7eb7a823-dbd5-467e-9151-b4993dbf32b7}">
+          <x14:cfRule type="dataBar" id="{96789bde-63bd-4d59-9381-5c331a3f8a06}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12021,7 +12021,7 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46a73de0-eabb-4a1f-967b-a319838675f4}">
+          <x14:cfRule type="dataBar" id="{1ccaac22-1a63-4635-b3d8-1d387ebe16a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12036,7 +12036,7 @@
           <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01b86178-9c31-4469-aa1d-97ab8e2c44f2}">
+          <x14:cfRule type="dataBar" id="{04151f6b-8aeb-4ba9-9e29-8fd0ae53d5c3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12051,7 +12051,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7c9e65fd-2829-45c1-9c2d-a0c959fe4a6d}">
+          <x14:cfRule type="dataBar" id="{f9366f42-283c-4bf0-aae1-5cbde1fb2cec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12066,7 +12066,7 @@
           <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6e803be5-8b5f-43dd-afe6-3ee273c3d979}">
+          <x14:cfRule type="dataBar" id="{32dc2037-83a7-4b05-971b-7f3649e217ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12081,7 +12081,7 @@
           <xm:sqref>G75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76ad8eac-dcc2-44eb-85cd-a5b73eba1ad2}">
+          <x14:cfRule type="dataBar" id="{12493fe5-820b-476e-8823-522141104ab4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12096,7 +12096,7 @@
           <xm:sqref>G6:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6bebc1e9-6ea9-43f4-9d84-27af0065e64c}">
+          <x14:cfRule type="dataBar" id="{bcdb9156-130c-408f-bad7-c9b3d099dd17}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12111,7 +12111,7 @@
           <xm:sqref>G36:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{402d2978-224d-4c31-ae21-b8876d9351de}">
+          <x14:cfRule type="dataBar" id="{8c2a7987-db05-429f-81df-b91db5467129}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12126,7 +12126,7 @@
           <xm:sqref>G59:G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{afb9d300-466c-4cce-a24d-d999326ecf33}">
+          <x14:cfRule type="dataBar" id="{ec7ec91c-a1dc-43e6-bebd-0b3eec828850}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
